--- a/tables/xlsx/Quest/QuestItemReward.xlsx
+++ b/tables/xlsx/Quest/QuestItemReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB82FFC-919A-4CCA-88E4-65DF5B75ACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806A76E-BA6A-43C2-8B62-8398543B481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +48,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -65,12 +85,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,18 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8766445-E10E-4722-B843-196EC44C1A09}" name="QuestItemRewardSheet" displayName="QuestItemRewardSheet" ref="A1:C61" totalsRowShown="0">
-  <autoFilter ref="A1:C61" xr:uid="{F8766445-E10E-4722-B843-196EC44C1A09}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9FDD151C-8EF0-4AB5-B42D-4C6C346A3C18}" name="id"/>
-    <tableColumn id="2" xr3:uid="{DCDD46E0-2D29-4AE6-9261-378D91A5A0A5}" name="item_id"/>
-    <tableColumn id="3" xr3:uid="{A1781133-0B61-4647-94F9-4AFE2D3A155A}" name="count"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,7 +454,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,681 +465,678 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>302001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
         <v>302002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>302003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>302005</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>302000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>302008</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>302009</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>302004</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>302006</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>302001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>302002</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>302003</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>302005</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>302000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>302008</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>302009</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>302004</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>302006</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>400000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>400000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>500000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>306040</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>306023</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>306024</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>306025</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>306044</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>306001</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>306002</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>306000</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>304002</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>304001</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="7">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>304000</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>304003</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>36</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>400000</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>400000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>101</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>303000</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>102</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>303001</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>103</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>303002</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>104</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>303003</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>105</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>303004</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>201</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>303100</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>202</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>303101</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>203</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>303102</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>204</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>303103</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>205</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>303104</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>301</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>303200</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>302</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>303201</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>303</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="8">
         <v>303202</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>304</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>303203</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>305</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="8">
         <v>303204</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>401</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>303300</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>402</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="8">
         <v>303301</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>403</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>303302</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="7">
         <v>404</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="8">
         <v>303303</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>405</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>303304</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="7">
         <v>501</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="8">
         <v>303400</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>502</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>303401</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="7">
         <v>503</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="8">
         <v>303402</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>504</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>303403</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>505</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>303404</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
